--- a/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R-Estudios-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.6656491378646657</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.7314493897883894</v>
+        <v>0.7314493897883892</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.3015055792657104</v>
+        <v>0.3009341706610862</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3243611091494877</v>
+        <v>0.3250317401038584</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3871906283295682</v>
+        <v>0.3911183215002461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5266119631917289</v>
+        <v>0.5217587715503145</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8480998718654841</v>
+        <v>0.8481398133374179</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8068512908328848</v>
+        <v>0.8083597315171185</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.8196157241692806</v>
+        <v>0.8210591366387949</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8300606276199824</v>
+        <v>0.8295430156455</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.6089678072317024</v>
+        <v>0.6117005948244151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.6090263073852759</v>
+        <v>0.6097954410638188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.643786574610279</v>
+        <v>0.6431451013669269</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.7115306500885862</v>
+        <v>0.7120399219677938</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3583353940058215</v>
+        <v>0.3564197475967002</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3874686932118834</v>
+        <v>0.3864964309668319</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4601955121471427</v>
+        <v>0.4652569434414049</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6039198933531404</v>
+        <v>0.6016207632873242</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8852282213836654</v>
+        <v>0.8856523164171245</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8500000600662515</v>
+        <v>0.8491549799620354</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8724203559819066</v>
+        <v>0.870586837120232</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8696318934209143</v>
+        <v>0.8679476213913802</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.6483870716543083</v>
+        <v>0.6502369649849189</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.6501912464331199</v>
+        <v>0.6515210879350902</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.6895005171500461</v>
+        <v>0.6885977298813374</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.7529417866640044</v>
+        <v>0.7521460541486779</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.5371017733729004</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.6556686479915284</v>
+        <v>0.6556686479915281</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.8336459791016398</v>
@@ -821,7 +821,7 @@
         <v>0.8892568846964058</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.9296610601087985</v>
+        <v>0.9296610601087986</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.5710698196641204</v>
@@ -833,7 +833,7 @@
         <v>0.7095043646304141</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.7908175409562966</v>
+        <v>0.7908175409562967</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2993736515576693</v>
+        <v>0.3023613958913864</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4277856813511038</v>
+        <v>0.4280784646304994</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5154177634206639</v>
+        <v>0.5154591514972505</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.6301302141120143</v>
+        <v>0.6314591488625901</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8143303167911828</v>
+        <v>0.8129868230161441</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8307893677310773</v>
+        <v>0.8289182564535349</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8757002898107066</v>
+        <v>0.8751847991956822</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.9145594453011383</v>
+        <v>0.912153602066727</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.5523450211060134</v>
+        <v>0.5530679761395851</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.6226297592206448</v>
+        <v>0.6229274372036698</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.69462583148782</v>
+        <v>0.6936972149304259</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.7733667420011306</v>
+        <v>0.7756254815930476</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3473608268869503</v>
+        <v>0.3501154792797759</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4746583153976144</v>
+        <v>0.4739081001540341</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5612910857460111</v>
+        <v>0.5596024499426825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6796230500464844</v>
+        <v>0.6784934937445579</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.8521614405833735</v>
+        <v>0.8505121866322937</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.865667308242374</v>
+        <v>0.8640249471418227</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9020926691112833</v>
+        <v>0.9038022218712305</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9415322576112671</v>
+        <v>0.940295692843397</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.5881165153239274</v>
+        <v>0.5892467248963545</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.6533478976541338</v>
+        <v>0.6565604198896035</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.7227204341345786</v>
+        <v>0.7236941978154185</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.803308908543271</v>
+        <v>0.8060260810380427</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.6596066111011861</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.7231770539783408</v>
+        <v>0.7231770539783406</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.7935950628797884</v>
@@ -969,7 +969,7 @@
         <v>0.7614938305209132</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.8141524249724187</v>
+        <v>0.8141524249724185</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3801481715718543</v>
+        <v>0.3780454483103247</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.4962532538681783</v>
+        <v>0.498562727445972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6201062286475713</v>
+        <v>0.6159694364611876</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.6817122890434091</v>
+        <v>0.6846426749122295</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.7546276801645927</v>
+        <v>0.756300739858605</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.7712028921225799</v>
+        <v>0.7739527833035907</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.8285064214793085</v>
+        <v>0.8308603614935484</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.8776138490187141</v>
+        <v>0.8767209793810076</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.5623539315923662</v>
+        <v>0.5614770639319282</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6427348887559909</v>
+        <v>0.6463419618908157</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.7339179549614324</v>
+        <v>0.7331409447458679</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.7903732733157278</v>
+        <v>0.7913382741718494</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4672452972827383</v>
+        <v>0.4646671523362543</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5948860918389908</v>
+        <v>0.5924850575519544</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.7019719606182756</v>
+        <v>0.7002455557874674</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7596664915891217</v>
+        <v>0.7607648266616532</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8289686005111421</v>
+        <v>0.8314128898632935</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.8518568958610181</v>
+        <v>0.8500401775117302</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.8911544453861323</v>
+        <v>0.8909854678670822</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9233724151027942</v>
+        <v>0.924151368446938</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.6228984137536355</v>
+        <v>0.6244928741983672</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.708850950540954</v>
+        <v>0.7100552935251531</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.7865195273162117</v>
+        <v>0.7846915114276359</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.8360262565622475</v>
+        <v>0.8355976198216687</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.3250490311813861</v>
+        <v>0.3245525141920467</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4179916018755583</v>
+        <v>0.4194776940222809</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5137886292412687</v>
+        <v>0.5151765475754542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.6371840888403917</v>
+        <v>0.6366219593928645</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.8269131291890429</v>
+        <v>0.8266029757937727</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.8243148743448481</v>
+        <v>0.8230342118054312</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.8612242763573809</v>
+        <v>0.8620877482356136</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.8965510114660235</v>
+        <v>0.8969914141738109</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.5838616303508082</v>
+        <v>0.5826453771838973</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.6292229249953613</v>
+        <v>0.6280577782331178</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.6963287061553992</v>
+        <v>0.6958904441917244</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.7735229033270088</v>
+        <v>0.7739028499879654</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3594382224772504</v>
+        <v>0.3590235457654158</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4550932408651665</v>
+        <v>0.4547819323516497</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.5501649752861021</v>
+        <v>0.5498828739745641</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.6730632244660452</v>
+        <v>0.6712891499527603</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.8534838897211169</v>
+        <v>0.8526701710792921</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.8504562131478233</v>
+        <v>0.8491934603384209</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.8856628579241673</v>
+        <v>0.8849353074647992</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9161824702660657</v>
+        <v>0.9161751693897939</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.6078917853595526</v>
+        <v>0.6070590199623638</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.652319000230615</v>
+        <v>0.6521716770731764</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.7188433056248068</v>
+        <v>0.7174713739108334</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.7950746560964312</v>
+        <v>0.794458684900362</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>311070</v>
+        <v>310481</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>315792</v>
+        <v>316445</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>291035</v>
+        <v>293987</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>304660</v>
+        <v>301853</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1114486</v>
+        <v>1114539</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1078596</v>
+        <v>1080613</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>813553</v>
+        <v>814986</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>682341</v>
+        <v>681916</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1428529</v>
+        <v>1434940</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1407083</v>
+        <v>1408860</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>1122931</v>
+        <v>1121812</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>996546</v>
+        <v>997260</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>369703</v>
+        <v>367726</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>377233</v>
+        <v>376286</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>345909</v>
+        <v>349714</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>349385</v>
+        <v>348055</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>1163277</v>
+        <v>1163834</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1136278</v>
+        <v>1135148</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>865967</v>
+        <v>864147</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>714870</v>
+        <v>713486</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>1521000</v>
+        <v>1525340</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>1502190</v>
+        <v>1505262</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>1202668</v>
+        <v>1201093</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>1054545</v>
+        <v>1053431</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>506699</v>
+        <v>511756</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>840153</v>
+        <v>840728</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1067433</v>
+        <v>1067519</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1404858</v>
+        <v>1407821</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>1290949</v>
+        <v>1288819</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1459532</v>
+        <v>1456244</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1739425</v>
+        <v>1738401</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1984728</v>
+        <v>1979507</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1810488</v>
+        <v>1812857</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>2316655</v>
+        <v>2317762</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2818327</v>
+        <v>2814559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>3402520</v>
+        <v>3412457</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>587919</v>
+        <v>592581</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>932209</v>
+        <v>930735</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1162437</v>
+        <v>1158940</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>1515201</v>
+        <v>1512683</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>1350922</v>
+        <v>1348308</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1520805</v>
+        <v>1517920</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1791849</v>
+        <v>1795245</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>2043263</v>
+        <v>2040580</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1927740</v>
+        <v>1931445</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>2430949</v>
+        <v>2442902</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>2932316</v>
+        <v>2936267</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>3534254</v>
+        <v>3546208</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>209617</v>
+        <v>208457</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>238788</v>
+        <v>239899</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>338525</v>
+        <v>336266</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>485098</v>
+        <v>487183</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>358643</v>
+        <v>359438</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>353698</v>
+        <v>354959</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>454196</v>
+        <v>455487</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>644938</v>
+        <v>644282</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>577350</v>
+        <v>576449</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>604051</v>
+        <v>607441</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>802998</v>
+        <v>802148</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>1143246</v>
+        <v>1144642</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>257643</v>
+        <v>256221</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>286248</v>
+        <v>285093</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>383216</v>
+        <v>382274</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>540569</v>
+        <v>541350</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>393974</v>
+        <v>395136</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>390688</v>
+        <v>389855</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>488541</v>
+        <v>488448</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>678565</v>
+        <v>679138</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>639509</v>
+        <v>641146</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>666187</v>
+        <v>667319</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>860551</v>
+        <v>858551</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>1209282</v>
+        <v>1208662</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1064750</v>
+        <v>1063124</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1428997</v>
+        <v>1434078</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>1730737</v>
+        <v>1735412</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2242627</v>
+        <v>2240648</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2790538</v>
+        <v>2789492</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2928155</v>
+        <v>2923606</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>3037658</v>
+        <v>3040703</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>3341501</v>
+        <v>3343143</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>3882859</v>
+        <v>3874771</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>4386282</v>
+        <v>4378160</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>4801685</v>
+        <v>4798663</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5605451</v>
+        <v>5608205</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1177398</v>
+        <v>1176039</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1555837</v>
+        <v>1554773</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>1853273</v>
+        <v>1852323</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>2368907</v>
+        <v>2362663</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>2880205</v>
+        <v>2877459</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>3021015</v>
+        <v>3016530</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>3123856</v>
+        <v>3121290</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>3414669</v>
+        <v>3414642</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>4042667</v>
+        <v>4037129</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>4547284</v>
+        <v>4546257</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>4956939</v>
+        <v>4947479</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>5761629</v>
+        <v>5757166</v>
       </c>
     </row>
     <row r="20">
